--- a/프로젝트_간트차트.xlsx
+++ b/프로젝트_간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F115C54F-0797-47A6-86E7-11C517ABE637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575AD935-260F-4647-869B-73399026802A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 플래너" sheetId="1" r:id="rId1"/>
@@ -100,27 +100,7 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 수집</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 전처리</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계학습</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>정확도평가</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>순위예측</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>도식화</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -129,6 +109,26 @@
   </si>
   <si>
     <t>프리젠테이션</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹페이지 제작</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 삽입</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">도식화 </t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 크롤링</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +142,7 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="179" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -779,7 +779,7 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,41 +846,38 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1354,20 +1351,20 @@
   <dimension ref="B1:BO14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.3984375" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
-    <col min="2" max="2" width="18.09765625" customWidth="1"/>
-    <col min="3" max="6" width="14.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="16" customWidth="1"/>
     <col min="8" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="48" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.125" bestFit="1" customWidth="1"/>
     <col min="49" max="57" width="6" bestFit="1" customWidth="1"/>
-    <col min="58" max="67" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="58" max="67" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
@@ -1381,13 +1378,13 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1395,40 +1392,40 @@
         <v>1</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="11"/>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
       <c r="R2" s="12"/>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="24"/>
+      <c r="T2" s="31"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
       <c r="AA2" s="14"/>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
       <c r="AF2" s="20"/>
     </row>
-    <row r="3" spans="2:67" s="6" customFormat="1" ht="39.9" customHeight="1" thickTop="1">
+    <row r="3" spans="2:67" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
       <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1441,7 @@
       <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -1476,195 +1473,195 @@
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32">
-        <v>43729</v>
-      </c>
-      <c r="I4" s="32">
-        <v>43730</v>
-      </c>
-      <c r="J4" s="32">
-        <v>43731</v>
-      </c>
-      <c r="K4" s="32">
-        <v>43732</v>
-      </c>
-      <c r="L4" s="32">
+      <c r="G4" s="24"/>
+      <c r="H4" s="22">
         <v>43733</v>
       </c>
-      <c r="M4" s="33">
+      <c r="I4" s="22">
         <v>43734</v>
       </c>
-      <c r="N4" s="33">
+      <c r="J4" s="22">
         <v>43735</v>
       </c>
-      <c r="O4" s="33">
+      <c r="K4" s="22">
         <v>43736</v>
       </c>
-      <c r="P4" s="33">
+      <c r="L4" s="22">
         <v>43737</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="M4" s="22">
         <v>43738</v>
       </c>
-      <c r="R4" s="33">
+      <c r="N4" s="22">
         <v>43739</v>
       </c>
-      <c r="S4" s="33">
+      <c r="O4" s="22">
         <v>43740</v>
       </c>
-      <c r="T4" s="33">
+      <c r="P4" s="22">
         <v>43741</v>
       </c>
-      <c r="U4" s="33">
+      <c r="Q4" s="22">
         <v>43742</v>
       </c>
-      <c r="V4" s="33">
+      <c r="R4" s="22">
         <v>43743</v>
       </c>
-      <c r="W4" s="33">
+      <c r="S4" s="22">
         <v>43744</v>
       </c>
-      <c r="X4" s="33">
+      <c r="T4" s="22">
         <v>43745</v>
       </c>
-      <c r="Y4" s="33">
+      <c r="U4" s="22">
         <v>43746</v>
       </c>
-      <c r="Z4" s="33">
+      <c r="V4" s="22">
         <v>43747</v>
       </c>
-      <c r="AA4" s="33">
+      <c r="W4" s="22">
         <v>43748</v>
       </c>
-      <c r="AB4" s="33">
+      <c r="X4" s="22">
         <v>43749</v>
       </c>
-      <c r="AC4" s="33">
+      <c r="Y4" s="22">
         <v>43750</v>
       </c>
-      <c r="AD4" s="33">
+      <c r="Z4" s="22">
         <v>43751</v>
       </c>
-      <c r="AE4" s="33">
+      <c r="AA4" s="22">
         <v>43752</v>
       </c>
-      <c r="AF4" s="33">
+      <c r="AB4" s="22">
         <v>43753</v>
       </c>
-      <c r="AG4" s="33">
+      <c r="AC4" s="22">
         <v>43754</v>
       </c>
-      <c r="AH4" s="33">
+      <c r="AD4" s="22">
         <v>43755</v>
       </c>
-      <c r="AI4" s="33">
+      <c r="AE4" s="22">
         <v>43756</v>
       </c>
-      <c r="AJ4" s="33">
+      <c r="AF4" s="22">
         <v>43757</v>
       </c>
-      <c r="AK4" s="33">
+      <c r="AG4" s="22">
         <v>43758</v>
       </c>
-      <c r="AL4" s="33">
+      <c r="AH4" s="22">
         <v>43759</v>
       </c>
-      <c r="AM4" s="33">
+      <c r="AI4" s="22">
         <v>43760</v>
       </c>
-      <c r="AN4" s="33">
+      <c r="AJ4" s="22">
         <v>43761</v>
       </c>
-      <c r="AO4" s="33">
+      <c r="AK4" s="22">
         <v>43762</v>
       </c>
-      <c r="AP4" s="33">
+      <c r="AL4" s="22">
         <v>43763</v>
       </c>
-      <c r="AQ4" s="33">
+      <c r="AM4" s="22">
         <v>43764</v>
       </c>
-      <c r="AR4" s="33">
+      <c r="AN4" s="22">
         <v>43765</v>
       </c>
-      <c r="AS4" s="33">
+      <c r="AO4" s="22">
         <v>43766</v>
       </c>
-      <c r="AT4" s="33">
+      <c r="AP4" s="22">
         <v>43767</v>
       </c>
-      <c r="AU4" s="33">
+      <c r="AQ4" s="22">
         <v>43768</v>
       </c>
-      <c r="AV4" s="33">
+      <c r="AR4" s="22">
         <v>43769</v>
       </c>
-      <c r="AW4" s="33">
+      <c r="AS4" s="22">
         <v>43770</v>
       </c>
-      <c r="AX4" s="33">
+      <c r="AT4" s="22">
         <v>43771</v>
       </c>
-      <c r="AY4" s="33">
+      <c r="AU4" s="22">
         <v>43772</v>
       </c>
-      <c r="AZ4" s="33">
+      <c r="AV4" s="22">
         <v>43773</v>
       </c>
-      <c r="BA4" s="33">
+      <c r="AW4" s="22">
         <v>43774</v>
       </c>
-      <c r="BB4" s="33">
+      <c r="AX4" s="22">
         <v>43775</v>
       </c>
-      <c r="BC4" s="33">
+      <c r="AY4" s="22">
         <v>43776</v>
       </c>
-      <c r="BD4" s="33">
+      <c r="AZ4" s="22">
         <v>43777</v>
       </c>
-      <c r="BE4" s="33">
+      <c r="BA4" s="22">
         <v>43778</v>
       </c>
-      <c r="BF4" s="33">
+      <c r="BB4" s="22">
         <v>43779</v>
       </c>
-      <c r="BG4" s="33">
+      <c r="BC4" s="22">
         <v>43780</v>
       </c>
-      <c r="BH4" s="33">
+      <c r="BD4" s="22">
         <v>43781</v>
       </c>
-      <c r="BI4" s="33">
+      <c r="BE4" s="22">
         <v>43782</v>
       </c>
-      <c r="BJ4" s="33">
+      <c r="BF4" s="22">
         <v>43783</v>
       </c>
-      <c r="BK4" s="33">
+      <c r="BG4" s="22">
         <v>43784</v>
       </c>
-      <c r="BL4" s="33">
+      <c r="BH4" s="22">
         <v>43785</v>
       </c>
-      <c r="BM4" s="33">
+      <c r="BI4" s="22">
         <v>43786</v>
       </c>
-      <c r="BN4" s="32">
+      <c r="BJ4" s="22">
         <v>43787</v>
       </c>
-      <c r="BO4" s="32">
+      <c r="BK4" s="22">
         <v>43788</v>
+      </c>
+      <c r="BL4" s="22">
+        <v>43789</v>
+      </c>
+      <c r="BM4" s="22">
+        <v>43790</v>
+      </c>
+      <c r="BN4" s="22">
+        <v>43791</v>
+      </c>
+      <c r="BO4" s="22">
+        <v>43792</v>
       </c>
     </row>
     <row r="5" spans="2:67" ht="15.75" customHeight="1">
       <c r="B5" s="29"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="2">
         <v>1</v>
       </c>
@@ -1854,13 +1851,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="18">
         <v>1</v>
       </c>
       <c r="F6" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" s="19">
         <v>1</v>
@@ -1928,22 +1925,22 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1">
       <c r="B7" s="17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="18">
         <v>5</v>
       </c>
       <c r="E7" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -2008,22 +2005,22 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1">
       <c r="B8" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="18">
+        <v>10</v>
+      </c>
+      <c r="D8" s="18">
         <v>7</v>
       </c>
-      <c r="D8" s="18">
-        <v>6</v>
-      </c>
       <c r="E8" s="18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F8" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -2088,22 +2085,22 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="18">
         <v>15</v>
       </c>
       <c r="E9" s="18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F9" s="18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G9" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -2168,22 +2165,22 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1">
       <c r="B10" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="18">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D10" s="18">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E10" s="18">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F10" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -2248,22 +2245,22 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1">
       <c r="B11" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="18">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D11" s="18">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E11" s="18">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F11" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -2328,22 +2325,22 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1">
       <c r="B12" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="18">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D12" s="18">
         <v>7</v>
       </c>
       <c r="E12" s="18">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F12" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -2408,22 +2405,22 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1">
       <c r="B13" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" s="18">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D13" s="18">
         <v>7</v>
       </c>
       <c r="E13" s="18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F13" s="18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G13" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -2488,22 +2485,22 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1">
       <c r="B14" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" s="18">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D14" s="18">
         <v>5</v>
       </c>
       <c r="E14" s="18">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F14" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -2568,6 +2565,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="B3:B5"/>
@@ -2575,11 +2577,6 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="H6:BO14">
@@ -2623,7 +2620,7 @@
       <formula>H$5=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="16">
+  <dataValidations count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트 플래너는 간격에 대한 기간을 사용합니다. 시작=1은 기간 1이고 기간=5는 프로젝트가 시작 기간부터 시작해서 5개의 기간 동안 진행됨을 의미합니다. B5에서 시작하는 날짜를 입력하여 차트를 업데이트합니다." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1에서 60까지 범위의 값을 입력하고 목록에서 기간을 선택한 후 취소를 누르고 ALT+아래쪽 화살표를 누른 후 Enter 키를 눌러 값을 선택합니다" prompt="1에서 60까지 범위의 기간을 입력하거나 목록에서 기간을 선택합니다. Alt+아래쪽 화살표를 눌러 목록을 찾은 다음 Enter 키를 눌러 값을 선택합니다." sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
